--- a/psaw/excel/one_query.xlsx
+++ b/psaw/excel/one_query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\psy-scales-py\psaw\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A3E73-D032-43BC-BBEA-4796B6A718CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC5B42E-5FBF-47C8-B37F-43F738CDB7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8686CA1-67F7-47D5-A5B5-96D69129525C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8686CA1-67F7-47D5-A5B5-96D69129525C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,16 +180,16 @@
     <t>Phrase</t>
   </si>
   <si>
-    <t>BDI</t>
-  </si>
-  <si>
     <t>Related (code)</t>
   </si>
   <si>
-    <t>i feel sad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I feel sad </t>
+    <t>DPRS-11</t>
+  </si>
+  <si>
+    <t>worried about my looks</t>
+  </si>
+  <si>
+    <t>I feel worried about my appearence</t>
   </si>
 </sst>
 </file>
@@ -305,9 +305,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,6 +312,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,19 +634,19 @@
   <dimension ref="B2:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="72.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="41.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -668,37 +668,37 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="7"/>
-    </row>
-    <row r="80" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="80" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/psaw/excel/one_query.xlsx
+++ b/psaw/excel/one_query.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\psy-scales-py\psaw\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC5B42E-5FBF-47C8-B37F-43F738CDB7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADE0ED6-6287-4DA0-8ACE-8F84E84F42AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8686CA1-67F7-47D5-A5B5-96D69129525C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8686CA1-67F7-47D5-A5B5-96D69129525C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Exact (or mostly exaxt) phrase from the each of the questionnaires</t>
+Exact (or mostly exact) phrase from the each of the questionnaires</t>
         </r>
       </text>
     </comment>
@@ -634,19 +634,19 @@
   <dimension ref="B2:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="72.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -671,7 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
@@ -683,22 +683,22 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" s="6"/>
     </row>
-    <row r="80" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
